--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_105.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_105.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,285 +488,308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_20</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A', 'A', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(19.98, 28.9)]</t>
+          <t>[['Eb', 'Eb', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[('0:00:04.046643', '0:00:21.484829')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:10.600000', '0:00:15.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1230650154798762</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'C#:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.303030303030303</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'E:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.496439, 26.964739)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.60754, 17.261599)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2266666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'E']]</t>
-        </is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1655405405405405</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>[['G', 'D', 'G'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.769931, 26.946439)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(60.62, 67.58)]</t>
+          <t>[('0:02:22.379117', '0:02:27.510727'), ('0:02:24.085784', '0:02:29.240614')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2451923076923077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09458128078817735</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.168, 18.573)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:05.208150', '0:00:11.035850')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09427767354596622</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'E']]</t>
-        </is>
+          <t>jaah_31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09326923076923077</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'E/4']]</t>
+          <t>[['C', 'C', 'G:7', 'G:7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.585419, 21.24102)]</t>
+          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(30.47, 33.309)]</t>
+          <t>[('0:00:07.840000', '0:00:15.040000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:22.370000', '0:00:36.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -770,351 +798,374 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'A', 'E']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(59.4, 67.94), (21.58, 29.34)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(20.410362, 24.856984), (2.612267, 17.443474)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.44, 43.32), (253.84, 257.6)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.34, 36.62), (0.48, 8.48)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2475</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929), (18.783807, 24.845034)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(209.04, 217.18), (49.28, 56.88)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2451923076923077</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3'], ['A/3', 'D', 'A']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(222.98, 230.9), (59.22, 66.88)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648), (4.25, 9.179)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07738095238095238</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.723015, 16.39331)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.779093, 14.076327)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.74, 19.74)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(22.32, 49.78)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(17.886772, 23.088042), (7.646772, 12.917702)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2039473684210526</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'F#', 'B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(55.151295, 60.155195)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(26.48873, 32.328548)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
